--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdditionalInformation</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/additional-information</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/additional-information</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdditionalInformation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T08:26:42+00:00</t>
+    <t>2024-03-25T09:35:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -915,8 +915,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -935,7 +935,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -954,10 +954,6 @@
   </si>
   <si>
     <t>effectiveDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Date and time of recording of the additional information</t>
@@ -1041,6 +1037,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>obs-7
@@ -5383,7 +5382,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5505,7 +5504,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>92</v>
@@ -5520,10 +5519,10 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>288</v>
@@ -5616,10 +5615,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5642,16 +5641,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5701,7 +5700,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5719,16 +5718,16 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5736,10 +5735,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5762,17 +5761,17 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5821,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5836,19 +5835,19 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5856,10 +5855,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5882,19 +5881,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5938,10 +5937,10 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5978,7 @@
         <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>330</v>
@@ -6007,16 +6006,16 @@
         <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6065,7 +6064,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6300,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>189</v>
@@ -10100,19 +10099,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>540</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdditionalInformation</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/additional-information</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -915,8 +915,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -931,13 +931,6 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -948,15 +941,6 @@
   </si>
   <si>
     <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]:effectiveDateTime</t>
-  </si>
-  <si>
-    <t>effectiveDateTime</t>
-  </si>
-  <si>
-    <t>Date and time of recording of the additional information</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -966,7 +950,7 @@
 </t>
   </si>
   <si>
-    <t>Date and time this version was made available</t>
+    <t>Date and time of registration of additional information</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
@@ -1037,6 +1021,10 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
   </si>
   <si>
     <t>open</t>
@@ -2067,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP70"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2078,7 +2066,7 @@
   <cols>
     <col min="1" max="1" width="45.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5382,7 +5370,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5446,14 +5434,16 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>284</v>
@@ -5471,19 +5461,19 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5491,16 +5481,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5519,20 +5507,18 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5580,7 +5566,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5595,19 +5581,19 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5615,10 +5601,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5629,10 +5615,10 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5641,18 +5627,18 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5700,13 +5686,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5715,19 +5701,19 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5735,10 +5721,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5746,13 +5732,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5761,17 +5747,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5808,71 +5796,71 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5881,19 +5869,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5930,17 +5918,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5949,7 +5939,7 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>104</v>
@@ -5961,28 +5951,26 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6000,23 +5988,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>331</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6064,7 +6048,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6073,10 +6057,10 @@
         <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6085,35 +6069,35 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6125,15 +6109,17 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6170,31 +6156,31 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -6224,14 +6210,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6240,21 +6226,23 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6290,31 +6278,31 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6326,10 +6314,10 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6337,10 +6325,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6348,7 +6336,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
@@ -6357,30 +6345,30 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6400,13 +6388,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6424,7 +6412,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6448,10 +6436,10 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6459,10 +6447,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6470,7 +6458,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>92</v>
@@ -6479,30 +6467,28 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6522,13 +6508,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6546,7 +6532,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6570,10 +6556,10 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6581,10 +6567,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6592,7 +6578,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>92</v>
@@ -6607,17 +6593,17 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6666,7 +6652,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6675,7 +6661,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6690,10 +6676,10 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6701,10 +6687,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6727,17 +6713,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6786,7 +6774,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6795,7 +6783,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6810,10 +6798,10 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6821,10 +6809,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6844,22 +6832,22 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6884,13 +6872,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6908,7 +6896,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6917,7 +6905,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6932,10 +6920,10 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6943,21 +6931,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6972,16 +6960,16 @@
         <v>232</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7006,40 +6994,40 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
@@ -7051,28 +7039,28 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>137</v>
+        <v>398</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7091,19 +7079,19 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>232</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7128,13 +7116,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7140,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7173,24 +7161,24 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7201,7 +7189,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7213,20 +7201,18 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>406</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7250,13 +7236,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7274,16 +7260,16 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7295,24 +7281,24 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7335,16 +7321,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7370,13 +7356,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7394,7 +7380,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7403,7 +7389,7 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>104</v>
@@ -7415,24 +7401,24 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7455,7 +7441,7 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>425</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>426</v>
@@ -7466,7 +7452,9 @@
       <c r="N45" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7490,13 +7478,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7514,7 +7502,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7523,7 +7511,7 @@
         <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>104</v>
@@ -7538,10 +7526,10 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7549,10 +7537,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7575,20 +7563,18 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>232</v>
+        <v>435</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7612,31 +7598,31 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7648,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7657,24 +7643,24 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7697,16 +7683,16 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7756,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7768,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>443</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7777,24 +7763,24 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7805,7 +7791,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7817,18 +7803,20 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7876,19 +7864,19 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>458</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7897,24 +7885,24 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7925,7 +7913,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7937,20 +7925,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>458</v>
+        <v>182</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7998,19 +7982,19 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>457</v>
+        <v>184</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8022,10 +8006,10 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>464</v>
+        <v>186</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8033,21 +8017,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8059,15 +8043,17 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8116,19 +8102,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8151,14 +8137,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8171,24 +8157,26 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8236,7 +8224,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8263,7 +8251,7 @@
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8271,46 +8259,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>140</v>
+        <v>465</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>192</v>
+        <v>466</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8358,19 +8342,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>194</v>
+        <v>464</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8382,10 +8366,10 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>137</v>
+        <v>469</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8393,10 +8377,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8419,13 +8403,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8476,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8485,7 +8469,7 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -8500,7 +8484,7 @@
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>473</v>
@@ -8537,7 +8521,7 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>475</v>
@@ -8570,13 +8554,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8603,7 +8587,7 @@
         <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>104</v>
@@ -8618,10 +8602,10 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8629,10 +8613,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8658,13 +8642,17 @@
         <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8688,13 +8676,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>388</v>
+        <v>237</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8712,7 +8700,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8733,13 +8721,13 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8747,10 +8735,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8761,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8776,16 +8764,16 @@
         <v>232</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8810,37 +8798,37 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8855,13 +8843,13 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8869,10 +8857,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8883,7 +8871,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8895,19 +8883,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>232</v>
+        <v>497</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8932,13 +8918,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8956,13 +8942,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8977,13 +8963,13 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -8991,10 +8977,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9017,18 +9003,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9076,7 +9060,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9085,7 +9069,7 @@
         <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>104</v>
@@ -9100,10 +9084,10 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9111,10 +9095,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9125,7 +9109,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9134,18 +9118,20 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9194,16 +9180,16 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>104</v>
@@ -9218,10 +9204,10 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>510</v>
+        <v>199</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9229,10 +9215,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9255,16 +9241,16 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9314,7 +9300,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9338,10 +9324,10 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9349,10 +9335,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9375,18 +9361,20 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9434,7 +9422,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9443,7 +9431,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>104</v>
@@ -9458,10 +9446,10 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9469,10 +9457,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9483,7 +9471,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9492,23 +9480,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>524</v>
+        <v>182</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9556,19 +9540,19 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>523</v>
+        <v>184</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9580,10 +9564,10 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>529</v>
+        <v>186</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9591,21 +9575,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9617,15 +9601,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9674,19 +9660,19 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9709,14 +9695,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9729,24 +9715,26 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9794,7 +9782,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9821,7 +9809,7 @@
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -9829,45 +9817,45 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>192</v>
+        <v>530</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>193</v>
+        <v>531</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>143</v>
+        <v>532</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9892,13 +9880,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9916,34 +9904,34 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>194</v>
+        <v>529</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -9951,10 +9939,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9962,7 +9950,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>92</v>
@@ -9977,19 +9965,19 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>535</v>
+        <v>315</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>536</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10014,13 +10002,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10038,16 +10026,16 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>104</v>
@@ -10056,19 +10044,19 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>537</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -10096,22 +10084,22 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10136,13 +10124,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10181,16 +10169,16 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -10202,14 +10190,14 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10224,16 +10212,16 @@
         <v>232</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>392</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>545</v>
+        <v>393</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10258,13 +10246,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10288,7 +10276,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10303,28 +10291,28 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>137</v>
+        <v>398</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10343,19 +10331,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
+        <v>545</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10380,13 +10368,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10404,7 +10392,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10425,142 +10413,20 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AP70" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP70">
+  <autoFilter ref="A1:AP69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10570,7 +10436,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-additional-information.xlsx
+++ b/main/ig/StructureDefinition-additional-information.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
